--- a/crypto_live_data.xlsx
+++ b/crypto_live_data.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Top 50 Cryptos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Live Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,16 +478,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95979</v>
+        <v>95780</v>
       </c>
       <c r="D2" t="n">
-        <v>1900841854251</v>
+        <v>1896189192060</v>
       </c>
       <c r="E2" t="n">
-        <v>50643556917</v>
+        <v>54624706368</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.1178</v>
+        <v>-1.01402</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3336.11</v>
+        <v>3333.36</v>
       </c>
       <c r="D3" t="n">
-        <v>401965582104</v>
+        <v>401649897462</v>
       </c>
       <c r="E3" t="n">
-        <v>30694739826</v>
+        <v>31070236782</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.38318</v>
+        <v>-1.08278</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +526,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9987549999999999</v>
+        <v>0.997296</v>
       </c>
       <c r="D4" t="n">
-        <v>139685703955</v>
+        <v>139386544717</v>
       </c>
       <c r="E4" t="n">
-        <v>105574175690</v>
+        <v>82582042717</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06959</v>
+        <v>-0.20553</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +553,13 @@
         <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>126251554586</v>
+        <v>126026359001</v>
       </c>
       <c r="E5" t="n">
-        <v>11097843609</v>
+        <v>10907957978</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.20979</v>
+        <v>-2.32625</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +574,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>672.4299999999999</v>
+        <v>673.08</v>
       </c>
       <c r="D6" t="n">
-        <v>98166476256</v>
+        <v>98162600345</v>
       </c>
       <c r="E6" t="n">
-        <v>1602103391</v>
+        <v>1651600136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.81638</v>
+        <v>1.31223</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +598,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>184.64</v>
+        <v>183.16</v>
       </c>
       <c r="D7" t="n">
-        <v>88591243096</v>
+        <v>87977886703</v>
       </c>
       <c r="E7" t="n">
-        <v>5604292386</v>
+        <v>5616946751</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.70695</v>
+        <v>-1.36559</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +622,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.316061</v>
+        <v>0.314045</v>
       </c>
       <c r="D8" t="n">
-        <v>46598902457</v>
+        <v>46295541184</v>
       </c>
       <c r="E8" t="n">
-        <v>4349035655</v>
+        <v>4311257108</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.56167</v>
+        <v>-1.94618</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +646,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.999119</v>
       </c>
       <c r="D9" t="n">
-        <v>42946938206</v>
+        <v>42891640012</v>
       </c>
       <c r="E9" t="n">
-        <v>6139975707</v>
+        <v>8661088091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03042</v>
+        <v>-0.03485</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +670,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3330.87</v>
+        <v>3329.11</v>
       </c>
       <c r="D10" t="n">
-        <v>32391508622</v>
+        <v>32365910392</v>
       </c>
       <c r="E10" t="n">
-        <v>176374548</v>
+        <v>178753393</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.42384</v>
+        <v>-1.15418</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +694,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.895155</v>
+        <v>0.893536</v>
       </c>
       <c r="D11" t="n">
-        <v>32159833962</v>
+        <v>32031619372</v>
       </c>
       <c r="E11" t="n">
-        <v>1290291336</v>
+        <v>1285343883</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.23042</v>
+        <v>-1.68285</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +718,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.249114</v>
+        <v>0.249166</v>
       </c>
       <c r="D12" t="n">
-        <v>21483374698</v>
+        <v>21483060711</v>
       </c>
       <c r="E12" t="n">
-        <v>1509233362</v>
+        <v>1507381987</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13922</v>
+        <v>0.70095</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +742,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>36.85</v>
       </c>
       <c r="D13" t="n">
-        <v>15173425946</v>
+        <v>15099259085</v>
       </c>
       <c r="E13" t="n">
-        <v>537606084</v>
+        <v>548133515</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.88845</v>
+        <v>-2.69292</v>
       </c>
     </row>
     <row r="14">
@@ -765,64 +766,64 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.09</v>
+        <v>23.17</v>
       </c>
       <c r="D14" t="n">
-        <v>14597412257</v>
+        <v>14626310848</v>
       </c>
       <c r="E14" t="n">
-        <v>1310195325</v>
+        <v>1325749931</v>
       </c>
       <c r="F14" t="n">
-        <v>2.00419</v>
+        <v>3.51726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>wsteth</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.43</v>
+        <v>3957.3</v>
       </c>
       <c r="D15" t="n">
-        <v>13871007106</v>
+        <v>13894230909</v>
       </c>
       <c r="E15" t="n">
-        <v>284690109</v>
+        <v>108961758</v>
       </c>
       <c r="F15" t="n">
-        <v>0.53307</v>
+        <v>-1.15155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wsteth</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3947.94</v>
+        <v>5.43</v>
       </c>
       <c r="D16" t="n">
-        <v>13867574461</v>
+        <v>13874193607</v>
       </c>
       <c r="E16" t="n">
-        <v>107869403</v>
+        <v>291356363</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.7367</v>
+        <v>0.53309</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +838,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.178e-05</v>
+        <v>2.175e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>12839395652</v>
+        <v>12806215311</v>
       </c>
       <c r="E17" t="n">
-        <v>668808037</v>
+        <v>667463352</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.21376</v>
+        <v>-0.6827299999999999</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +862,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>95634</v>
+        <v>95520</v>
       </c>
       <c r="D18" t="n">
-        <v>12800892005</v>
+        <v>12788037564</v>
       </c>
       <c r="E18" t="n">
-        <v>332800143</v>
+        <v>340195540</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.04583</v>
+        <v>-1.18954</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +886,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
       <c r="D19" t="n">
-        <v>12729333175</v>
+        <v>12654885312</v>
       </c>
       <c r="E19" t="n">
-        <v>2172858172</v>
+        <v>2157655940</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.59865</v>
+        <v>-3.33095</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +910,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.358576</v>
+        <v>0.356625</v>
       </c>
       <c r="D20" t="n">
-        <v>10854559177</v>
+        <v>10787926449</v>
       </c>
       <c r="E20" t="n">
-        <v>443959140</v>
+        <v>436046566</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.86151</v>
+        <v>-2.11849</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +934,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="D21" t="n">
-        <v>10647302251</v>
+        <v>10618974565</v>
       </c>
       <c r="E21" t="n">
-        <v>470992324</v>
+        <v>469171502</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.47142</v>
+        <v>-1.16709</v>
       </c>
     </row>
     <row r="22">
@@ -957,16 +958,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.274053</v>
+        <v>0.276014</v>
       </c>
       <c r="D22" t="n">
-        <v>10494494190</v>
+        <v>10557850383</v>
       </c>
       <c r="E22" t="n">
-        <v>940866138</v>
+        <v>962246681</v>
       </c>
       <c r="F22" t="n">
-        <v>2.62143</v>
+        <v>5.70236</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +982,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27.69</v>
+        <v>26.95</v>
       </c>
       <c r="D23" t="n">
-        <v>9247718437</v>
+        <v>9067058606</v>
       </c>
       <c r="E23" t="n">
-        <v>717855725</v>
+        <v>716972827</v>
       </c>
       <c r="F23" t="n">
-        <v>-19.2596</v>
+        <v>-18.97907</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1006,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3338.47</v>
+        <v>3333</v>
       </c>
       <c r="D24" t="n">
-        <v>9057569869</v>
+        <v>9052564085</v>
       </c>
       <c r="E24" t="n">
-        <v>221379509</v>
+        <v>918357021</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.34753</v>
+        <v>-1.2148</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1030,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>445.47</v>
+        <v>443.98</v>
       </c>
       <c r="D25" t="n">
-        <v>8832991491</v>
+        <v>8796636674</v>
       </c>
       <c r="E25" t="n">
-        <v>315177046</v>
+        <v>319193049</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.95707</v>
+        <v>-2.23602</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1054,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.48</v>
+        <v>9.43</v>
       </c>
       <c r="D26" t="n">
-        <v>8761978473</v>
+        <v>8719111598</v>
       </c>
       <c r="E26" t="n">
-        <v>958871</v>
+        <v>921546</v>
       </c>
       <c r="F26" t="n">
-        <v>1.20964</v>
+        <v>1.33043</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1078,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13.93</v>
+        <v>13.79</v>
       </c>
       <c r="D27" t="n">
-        <v>8373434723</v>
+        <v>8265055089</v>
       </c>
       <c r="E27" t="n">
-        <v>842819716</v>
+        <v>831819567</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.80694</v>
+        <v>-2.25472</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1102,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>102.24</v>
+        <v>102.2</v>
       </c>
       <c r="D28" t="n">
-        <v>7707250140</v>
+        <v>7700109552</v>
       </c>
       <c r="E28" t="n">
-        <v>778874612</v>
+        <v>757234519</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07785</v>
+        <v>-0.6327199999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1126,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.8e-05</v>
+        <v>1.79e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>7592266937</v>
+        <v>7537097436</v>
       </c>
       <c r="E29" t="n">
-        <v>2604845744</v>
+        <v>2584686402</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.01335</v>
+        <v>0.14502</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1150,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3522.21</v>
+        <v>3521.46</v>
       </c>
       <c r="D30" t="n">
-        <v>6574945453</v>
+        <v>6667627786</v>
       </c>
       <c r="E30" t="n">
-        <v>49922490</v>
+        <v>51038602</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.27752</v>
+        <v>-1.31097</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1174,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="D31" t="n">
-        <v>6233297077</v>
+        <v>6213034828</v>
       </c>
       <c r="E31" t="n">
-        <v>1209320186</v>
+        <v>1158789476</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4008</v>
+        <v>1.09227</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1198,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.999301</v>
+        <v>0.998424</v>
       </c>
       <c r="D32" t="n">
-        <v>5921084072</v>
+        <v>5908478590</v>
       </c>
       <c r="E32" t="n">
-        <v>79069119</v>
+        <v>90851323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06636</v>
+        <v>-0.05855</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1222,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="D33" t="n">
-        <v>5778581041</v>
+        <v>5736560241</v>
       </c>
       <c r="E33" t="n">
-        <v>110133195</v>
+        <v>104042351</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.61249</v>
+        <v>-2.32435</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1246,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
       <c r="D34" t="n">
-        <v>5244193996</v>
+        <v>5234296416</v>
       </c>
       <c r="E34" t="n">
-        <v>19517078</v>
+        <v>18648182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2905</v>
+        <v>0.21395</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1270,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.24</v>
+        <v>9.19</v>
       </c>
       <c r="D35" t="n">
-        <v>5140536207</v>
+        <v>5111314166</v>
       </c>
       <c r="E35" t="n">
-        <v>593041319</v>
+        <v>602387207</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.56901</v>
+        <v>-2.82144</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1294,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>339</v>
+        <v>336.18</v>
       </c>
       <c r="D36" t="n">
-        <v>5093606361</v>
+        <v>5062684123</v>
       </c>
       <c r="E36" t="n">
-        <v>1226327740</v>
+        <v>1230538397</v>
       </c>
       <c r="F36" t="n">
-        <v>9.65804</v>
+        <v>9.84567</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1318,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10.14</v>
+        <v>10.09</v>
       </c>
       <c r="D37" t="n">
-        <v>4849059200</v>
+        <v>4812580342</v>
       </c>
       <c r="E37" t="n">
-        <v>231671949</v>
+        <v>229471771</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.90145</v>
+        <v>0.12017</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +1342,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.155544</v>
+        <v>0.155123</v>
       </c>
       <c r="D38" t="n">
-        <v>4225250290</v>
+        <v>4214298908</v>
       </c>
       <c r="E38" t="n">
-        <v>28521271</v>
+        <v>28631222</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.92129</v>
+        <v>-2.42936</v>
       </c>
     </row>
     <row r="39">
@@ -1365,16 +1366,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.480876</v>
+        <v>0.478544</v>
       </c>
       <c r="D39" t="n">
-        <v>4035469386</v>
+        <v>4020948520</v>
       </c>
       <c r="E39" t="n">
-        <v>176946951</v>
+        <v>173958837</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.35621</v>
+        <v>-1.07849</v>
       </c>
     </row>
     <row r="40">
@@ -1392,13 +1393,13 @@
         <v>1.18</v>
       </c>
       <c r="D40" t="n">
-        <v>3981571970</v>
+        <v>4000394150</v>
       </c>
       <c r="E40" t="n">
-        <v>162832886</v>
+        <v>156771276</v>
       </c>
       <c r="F40" t="n">
-        <v>0.50396</v>
+        <v>0.86611</v>
       </c>
     </row>
     <row r="41">
@@ -1413,16 +1414,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26.42</v>
+        <v>26.41</v>
       </c>
       <c r="D41" t="n">
-        <v>3967548153</v>
+        <v>3963517257</v>
       </c>
       <c r="E41" t="n">
-        <v>212978020</v>
+        <v>215959914</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.20792</v>
+        <v>0.5216499999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1437,16 +1438,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.04637537</v>
+        <v>0.04631741</v>
       </c>
       <c r="D42" t="n">
-        <v>3758182790</v>
+        <v>3750735568</v>
       </c>
       <c r="E42" t="n">
-        <v>119110187</v>
+        <v>117458314</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.56388</v>
+        <v>0.72385</v>
       </c>
     </row>
     <row r="43">
@@ -1461,112 +1462,112 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="D43" t="n">
-        <v>3698675078</v>
+        <v>3692608198</v>
       </c>
       <c r="E43" t="n">
-        <v>162095823</v>
+        <v>159472046</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.72452</v>
+        <v>-1.33363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>xmr</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>191.04</v>
+        <v>24.41</v>
       </c>
       <c r="D44" t="n">
-        <v>3523785317</v>
+        <v>3522198311</v>
       </c>
       <c r="E44" t="n">
-        <v>78660475</v>
+        <v>35029837</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4399</v>
+        <v>0.13058</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>xmr</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.44</v>
+        <v>189.26</v>
       </c>
       <c r="D45" t="n">
-        <v>3522560006</v>
+        <v>3494135887</v>
       </c>
       <c r="E45" t="n">
-        <v>34403497</v>
+        <v>77603935</v>
       </c>
       <c r="F45" t="n">
-        <v>0.28696</v>
+        <v>-0.30006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MANTRA</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>om</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.61</v>
+        <v>0.999871</v>
       </c>
       <c r="D46" t="n">
-        <v>3429392553</v>
+        <v>3409346392</v>
       </c>
       <c r="E46" t="n">
-        <v>52413731</v>
+        <v>156863386</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.48981</v>
+        <v>0.02562</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>MANTRA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>om</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.999954</v>
+        <v>3.55</v>
       </c>
       <c r="D47" t="n">
-        <v>3410395850</v>
+        <v>3389029790</v>
       </c>
       <c r="E47" t="n">
-        <v>162138244</v>
+        <v>52927336</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.00319</v>
+        <v>-5.77137</v>
       </c>
     </row>
     <row r="48">
@@ -1581,16 +1582,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>457.87</v>
+        <v>455.29</v>
       </c>
       <c r="D48" t="n">
-        <v>3381599304</v>
+        <v>3365796141</v>
       </c>
       <c r="E48" t="n">
-        <v>148173532</v>
+        <v>145728037</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.31174</v>
+        <v>-1.75692</v>
       </c>
     </row>
     <row r="49">
@@ -1608,13 +1609,13 @@
         <v>1.28</v>
       </c>
       <c r="D49" t="n">
-        <v>3343269334</v>
+        <v>3341247312</v>
       </c>
       <c r="E49" t="n">
-        <v>375218043</v>
+        <v>379681436</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.39889</v>
+        <v>-0.50563</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1630,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.763126</v>
+        <v>0.760754</v>
       </c>
       <c r="D50" t="n">
-        <v>3217894765</v>
+        <v>3200379945</v>
       </c>
       <c r="E50" t="n">
-        <v>554632064</v>
+        <v>557324950</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.23493</v>
+        <v>0.5596</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1654,145 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.042</v>
+        <v>1.036</v>
       </c>
       <c r="D51" t="n">
-        <v>3069785022</v>
+        <v>3047348101</v>
       </c>
       <c r="E51" t="n">
-        <v>726668019</v>
+        <v>713907660</v>
       </c>
       <c r="F51" t="n">
-        <v>-4.51732</v>
+        <v>-2.18417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1896189192060</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>401649897462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>139386544717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>126026359001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>98162600345</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Average Price</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$4227.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Highest Change</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aave (9.85%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lowest Change</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hyperliquid (-18.98%)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/crypto_live_data.xlsx
+++ b/crypto_live_data.xlsx
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95780</v>
+        <v>96175</v>
       </c>
       <c r="D2" t="n">
-        <v>1896189192060</v>
+        <v>1906733715357</v>
       </c>
       <c r="E2" t="n">
-        <v>54624706368</v>
+        <v>55224547451</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.01402</v>
+        <v>-0.79487</v>
       </c>
     </row>
     <row r="3">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3333.36</v>
+        <v>3347.77</v>
       </c>
       <c r="D3" t="n">
-        <v>401649897462</v>
+        <v>404122591798</v>
       </c>
       <c r="E3" t="n">
-        <v>31070236782</v>
+        <v>31305907726</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.08278</v>
+        <v>-0.83694</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.997296</v>
+        <v>0.998404</v>
       </c>
       <c r="D4" t="n">
-        <v>139386544717</v>
+        <v>139711652183</v>
       </c>
       <c r="E4" t="n">
-        <v>82582042717</v>
+        <v>50350115455</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.20553</v>
+        <v>-0.04862</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="D5" t="n">
-        <v>126026359001</v>
+        <v>127013388522</v>
       </c>
       <c r="E5" t="n">
-        <v>10907957978</v>
+        <v>10864663143</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.32625</v>
+        <v>-1.95221</v>
       </c>
     </row>
     <row r="6">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>673.08</v>
+        <v>677.86</v>
       </c>
       <c r="D6" t="n">
-        <v>98162600345</v>
+        <v>98979994570</v>
       </c>
       <c r="E6" t="n">
-        <v>1651600136</v>
+        <v>1696829035</v>
       </c>
       <c r="F6" t="n">
-        <v>1.31223</v>
+        <v>1.73974</v>
       </c>
     </row>
     <row r="7">
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>183.16</v>
+        <v>184.36</v>
       </c>
       <c r="D7" t="n">
-        <v>87977886703</v>
+        <v>88548950475</v>
       </c>
       <c r="E7" t="n">
-        <v>5616946751</v>
+        <v>5653740838</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.36559</v>
+        <v>-0.99704</v>
       </c>
     </row>
     <row r="8">
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.314045</v>
+        <v>0.316139</v>
       </c>
       <c r="D8" t="n">
-        <v>46295541184</v>
+        <v>46670698301</v>
       </c>
       <c r="E8" t="n">
-        <v>4311257108</v>
+        <v>4321195782</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.94618</v>
+        <v>-1.58106</v>
       </c>
     </row>
     <row r="9">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.999119</v>
+        <v>0.9999169999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>42891640012</v>
+        <v>42951679706</v>
       </c>
       <c r="E9" t="n">
-        <v>8661088091</v>
+        <v>9387208356</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03485</v>
+        <v>0.00536</v>
       </c>
     </row>
     <row r="10">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3329.11</v>
+        <v>3341.14</v>
       </c>
       <c r="D10" t="n">
-        <v>32365910392</v>
+        <v>32522167333</v>
       </c>
       <c r="E10" t="n">
-        <v>178753393</v>
+        <v>177653090</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.15418</v>
+        <v>-1.01962</v>
       </c>
     </row>
     <row r="11">
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.893536</v>
+        <v>0.898141</v>
       </c>
       <c r="D11" t="n">
-        <v>32031619372</v>
+        <v>32255389052</v>
       </c>
       <c r="E11" t="n">
-        <v>1285343883</v>
+        <v>1283263103</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.68285</v>
+        <v>-1.30503</v>
       </c>
     </row>
     <row r="12">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.249166</v>
+        <v>0.250576</v>
       </c>
       <c r="D12" t="n">
-        <v>21483060711</v>
+        <v>21624417205</v>
       </c>
       <c r="E12" t="n">
-        <v>1507381987</v>
+        <v>1517979450</v>
       </c>
       <c r="F12" t="n">
-        <v>0.70095</v>
+        <v>0.9547</v>
       </c>
     </row>
     <row r="13">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36.85</v>
+        <v>37.08</v>
       </c>
       <c r="D13" t="n">
-        <v>15099259085</v>
+        <v>15229592417</v>
       </c>
       <c r="E13" t="n">
-        <v>548133515</v>
+        <v>550870553</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.69292</v>
+        <v>-2.44947</v>
       </c>
     </row>
     <row r="14">
@@ -766,64 +766,64 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.17</v>
+        <v>23.08</v>
       </c>
       <c r="D14" t="n">
-        <v>14626310848</v>
+        <v>14613764100</v>
       </c>
       <c r="E14" t="n">
-        <v>1325749931</v>
+        <v>1349031457</v>
       </c>
       <c r="F14" t="n">
-        <v>3.51726</v>
+        <v>2.78655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wsteth</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3957.3</v>
+        <v>5.45</v>
       </c>
       <c r="D15" t="n">
-        <v>13894230909</v>
+        <v>13938066774</v>
       </c>
       <c r="E15" t="n">
-        <v>108961758</v>
+        <v>292844182</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.15155</v>
+        <v>0.04053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>wsteth</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.43</v>
+        <v>3968.53</v>
       </c>
       <c r="D16" t="n">
-        <v>13874193607</v>
+        <v>13927862597</v>
       </c>
       <c r="E16" t="n">
-        <v>291356363</v>
+        <v>113758499</v>
       </c>
       <c r="F16" t="n">
-        <v>0.53309</v>
+        <v>-1.03309</v>
       </c>
     </row>
     <row r="17">
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.175e-05</v>
+        <v>2.188e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>12806215311</v>
+        <v>12918642281</v>
       </c>
       <c r="E17" t="n">
-        <v>667463352</v>
+        <v>669283289</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6827299999999999</v>
+        <v>-0.65022</v>
       </c>
     </row>
     <row r="18">
@@ -862,16 +862,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>95520</v>
+        <v>95766</v>
       </c>
       <c r="D18" t="n">
-        <v>12788037564</v>
+        <v>12845206952</v>
       </c>
       <c r="E18" t="n">
-        <v>340195540</v>
+        <v>344129745</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.18954</v>
+        <v>-0.84948</v>
       </c>
     </row>
     <row r="19">
@@ -889,13 +889,13 @@
         <v>4.32</v>
       </c>
       <c r="D19" t="n">
-        <v>12654885312</v>
+        <v>12692346327</v>
       </c>
       <c r="E19" t="n">
-        <v>2157655940</v>
+        <v>1984448611</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.33095</v>
+        <v>-3.35019</v>
       </c>
     </row>
     <row r="20">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.356625</v>
+        <v>0.359748</v>
       </c>
       <c r="D20" t="n">
-        <v>10787926449</v>
+        <v>10903029381</v>
       </c>
       <c r="E20" t="n">
-        <v>436046566</v>
+        <v>435655821</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.11849</v>
+        <v>-1.3785</v>
       </c>
     </row>
     <row r="21">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.98</v>
+        <v>7.03</v>
       </c>
       <c r="D21" t="n">
-        <v>10618974565</v>
+        <v>10725917811</v>
       </c>
       <c r="E21" t="n">
-        <v>469171502</v>
+        <v>467664956</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.16709</v>
+        <v>-0.43406</v>
       </c>
     </row>
     <row r="22">
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.276014</v>
+        <v>0.277016</v>
       </c>
       <c r="D22" t="n">
-        <v>10557850383</v>
+        <v>10609906489</v>
       </c>
       <c r="E22" t="n">
-        <v>962246681</v>
+        <v>977498912</v>
       </c>
       <c r="F22" t="n">
-        <v>5.70236</v>
+        <v>5.54386</v>
       </c>
     </row>
     <row r="23">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26.95</v>
+        <v>27.57</v>
       </c>
       <c r="D23" t="n">
-        <v>9067058606</v>
+        <v>9225702320</v>
       </c>
       <c r="E23" t="n">
-        <v>716972827</v>
+        <v>83291932</v>
       </c>
       <c r="F23" t="n">
-        <v>-18.97907</v>
+        <v>-17.25749</v>
       </c>
     </row>
     <row r="24">
@@ -1006,16 +1006,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3333</v>
+        <v>3346.42</v>
       </c>
       <c r="D24" t="n">
-        <v>9052564085</v>
+        <v>9105081326</v>
       </c>
       <c r="E24" t="n">
-        <v>918357021</v>
+        <v>962830640</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.2148</v>
+        <v>-1.01235</v>
       </c>
     </row>
     <row r="25">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>443.98</v>
+        <v>445.44</v>
       </c>
       <c r="D25" t="n">
-        <v>8796636674</v>
+        <v>8835375300</v>
       </c>
       <c r="E25" t="n">
-        <v>319193049</v>
+        <v>315323545</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.23602</v>
+        <v>-2.23771</v>
       </c>
     </row>
     <row r="26">
@@ -1054,16 +1054,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.43</v>
+        <v>9.44</v>
       </c>
       <c r="D26" t="n">
-        <v>8719111598</v>
+        <v>8732007698</v>
       </c>
       <c r="E26" t="n">
-        <v>921546</v>
+        <v>913290</v>
       </c>
       <c r="F26" t="n">
-        <v>1.33043</v>
+        <v>1.03445</v>
       </c>
     </row>
     <row r="27">
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13.79</v>
+        <v>13.85</v>
       </c>
       <c r="D27" t="n">
-        <v>8265055089</v>
+        <v>8344234298</v>
       </c>
       <c r="E27" t="n">
-        <v>831819567</v>
+        <v>830423404</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.25472</v>
+        <v>-1.26384</v>
       </c>
     </row>
     <row r="28">
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>102.2</v>
+        <v>103.06</v>
       </c>
       <c r="D28" t="n">
-        <v>7700109552</v>
+        <v>7779408403</v>
       </c>
       <c r="E28" t="n">
-        <v>757234519</v>
+        <v>772378148</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6327199999999999</v>
+        <v>-0.14877</v>
       </c>
     </row>
     <row r="29">
@@ -1126,16 +1126,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.79e-05</v>
+        <v>1.802e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>7537097436</v>
+        <v>7601268487</v>
       </c>
       <c r="E29" t="n">
-        <v>2584686402</v>
+        <v>2570288970</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14502</v>
+        <v>-0.40706</v>
       </c>
     </row>
     <row r="30">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3521.46</v>
+        <v>3526.61</v>
       </c>
       <c r="D30" t="n">
-        <v>6667627786</v>
+        <v>6697920681</v>
       </c>
       <c r="E30" t="n">
-        <v>51038602</v>
+        <v>52164814</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.31097</v>
+        <v>-1.10546</v>
       </c>
     </row>
     <row r="31">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="D31" t="n">
-        <v>6213034828</v>
+        <v>6294907881</v>
       </c>
       <c r="E31" t="n">
-        <v>1158789476</v>
+        <v>1151959277</v>
       </c>
       <c r="F31" t="n">
-        <v>1.09227</v>
+        <v>1.13869</v>
       </c>
     </row>
     <row r="32">
@@ -1198,16 +1198,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.998424</v>
+        <v>0.99863</v>
       </c>
       <c r="D32" t="n">
-        <v>5908478590</v>
+        <v>5913867204</v>
       </c>
       <c r="E32" t="n">
-        <v>90851323</v>
+        <v>91488219</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05855</v>
+        <v>-0.05467</v>
       </c>
     </row>
     <row r="33">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D33" t="n">
-        <v>5736560241</v>
+        <v>5739930931</v>
       </c>
       <c r="E33" t="n">
-        <v>104042351</v>
+        <v>100811820</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.32435</v>
+        <v>-2.79414</v>
       </c>
     </row>
     <row r="34">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>5234296416</v>
+        <v>5235513534</v>
       </c>
       <c r="E34" t="n">
-        <v>18648182</v>
+        <v>18038988</v>
       </c>
       <c r="F34" t="n">
-        <v>0.21395</v>
+        <v>0.00584</v>
       </c>
     </row>
     <row r="35">
@@ -1270,16 +1270,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.19</v>
+        <v>9.23</v>
       </c>
       <c r="D35" t="n">
-        <v>5111314166</v>
+        <v>5152697575</v>
       </c>
       <c r="E35" t="n">
-        <v>602387207</v>
+        <v>601459208</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.82144</v>
+        <v>-2.45343</v>
       </c>
     </row>
     <row r="36">
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>336.18</v>
+        <v>338.73</v>
       </c>
       <c r="D36" t="n">
-        <v>5062684123</v>
+        <v>5102733691</v>
       </c>
       <c r="E36" t="n">
-        <v>1230538397</v>
+        <v>1242054428</v>
       </c>
       <c r="F36" t="n">
-        <v>9.84567</v>
+        <v>10.19386</v>
       </c>
     </row>
     <row r="37">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10.09</v>
+        <v>10.19</v>
       </c>
       <c r="D37" t="n">
-        <v>4812580342</v>
+        <v>4881856308</v>
       </c>
       <c r="E37" t="n">
-        <v>229471771</v>
+        <v>228183986</v>
       </c>
       <c r="F37" t="n">
-        <v>0.12017</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="38">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.155123</v>
+        <v>0.155732</v>
       </c>
       <c r="D38" t="n">
-        <v>4214298908</v>
+        <v>4232263968</v>
       </c>
       <c r="E38" t="n">
-        <v>28631222</v>
+        <v>28859470</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.42936</v>
+        <v>-2.53052</v>
       </c>
     </row>
     <row r="39">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.478544</v>
+        <v>0.482415</v>
       </c>
       <c r="D39" t="n">
-        <v>4020948520</v>
+        <v>4048218419</v>
       </c>
       <c r="E39" t="n">
-        <v>173958837</v>
+        <v>172737792</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.07849</v>
+        <v>-0.53351</v>
       </c>
     </row>
     <row r="40">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="D40" t="n">
-        <v>4000394150</v>
+        <v>4035466182</v>
       </c>
       <c r="E40" t="n">
-        <v>156771276</v>
+        <v>159357923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.86611</v>
+        <v>1.3936</v>
       </c>
     </row>
     <row r="41">
@@ -1414,16 +1414,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>26.41</v>
+        <v>26.54</v>
       </c>
       <c r="D41" t="n">
-        <v>3963517257</v>
+        <v>3992903485</v>
       </c>
       <c r="E41" t="n">
-        <v>215959914</v>
+        <v>214764965</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5216499999999999</v>
+        <v>0.5593900000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1438,16 +1438,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.04631741</v>
+        <v>0.04685565</v>
       </c>
       <c r="D42" t="n">
-        <v>3750735568</v>
+        <v>3802353422</v>
       </c>
       <c r="E42" t="n">
-        <v>117458314</v>
+        <v>116917132</v>
       </c>
       <c r="F42" t="n">
-        <v>0.72385</v>
+        <v>0.85655</v>
       </c>
     </row>
     <row r="43">
@@ -1462,64 +1462,64 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.13</v>
+        <v>7.19</v>
       </c>
       <c r="D43" t="n">
-        <v>3692608198</v>
+        <v>3728816772</v>
       </c>
       <c r="E43" t="n">
-        <v>159472046</v>
+        <v>161062565</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.33363</v>
+        <v>-1.04886</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>xmr</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.41</v>
+        <v>192.95</v>
       </c>
       <c r="D44" t="n">
-        <v>3522198311</v>
+        <v>3552159214</v>
       </c>
       <c r="E44" t="n">
-        <v>35029837</v>
+        <v>80527760</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13058</v>
+        <v>1.82859</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>xmr</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>189.26</v>
+        <v>24.5</v>
       </c>
       <c r="D45" t="n">
-        <v>3494135887</v>
+        <v>3535039647</v>
       </c>
       <c r="E45" t="n">
-        <v>77603935</v>
+        <v>35464840</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.30006</v>
+        <v>0.56884</v>
       </c>
     </row>
     <row r="46">
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.999871</v>
+        <v>0.999535</v>
       </c>
       <c r="D46" t="n">
-        <v>3409346392</v>
+        <v>3411160509</v>
       </c>
       <c r="E46" t="n">
-        <v>156863386</v>
+        <v>87970922</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02562</v>
+        <v>-0.03348</v>
       </c>
     </row>
     <row r="47">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="D47" t="n">
-        <v>3389029790</v>
+        <v>3395245575</v>
       </c>
       <c r="E47" t="n">
-        <v>52927336</v>
+        <v>52164185</v>
       </c>
       <c r="F47" t="n">
-        <v>-5.77137</v>
+        <v>-5.49702</v>
       </c>
     </row>
     <row r="48">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>455.29</v>
+        <v>457.8</v>
       </c>
       <c r="D48" t="n">
-        <v>3365796141</v>
+        <v>3387063111</v>
       </c>
       <c r="E48" t="n">
-        <v>145728037</v>
+        <v>144992295</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.75692</v>
+        <v>-2.01301</v>
       </c>
     </row>
     <row r="49">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="D49" t="n">
-        <v>3341247312</v>
+        <v>3372905086</v>
       </c>
       <c r="E49" t="n">
-        <v>379681436</v>
+        <v>381021505</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.50563</v>
+        <v>-0.14056</v>
       </c>
     </row>
     <row r="50">
@@ -1630,16 +1630,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.760754</v>
+        <v>0.7661829999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>3200379945</v>
+        <v>3233898450</v>
       </c>
       <c r="E50" t="n">
-        <v>557324950</v>
+        <v>560223780</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5596</v>
+        <v>0.43423</v>
       </c>
     </row>
     <row r="51">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.036</v>
+        <v>1.043</v>
       </c>
       <c r="D51" t="n">
-        <v>3047348101</v>
+        <v>3066476975</v>
       </c>
       <c r="E51" t="n">
-        <v>713907660</v>
+        <v>709273057</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.18417</v>
+        <v>-1.03814</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1896189192060</v>
+        <v>1906733715357</v>
       </c>
     </row>
     <row r="3">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401649897462</v>
+        <v>404122591798</v>
       </c>
     </row>
     <row r="4">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139386544717</v>
+        <v>139711652183</v>
       </c>
     </row>
     <row r="5">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126026359001</v>
+        <v>127013388522</v>
       </c>
     </row>
     <row r="6">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98162600345</v>
+        <v>98979994570</v>
       </c>
     </row>
     <row r="8">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$4227.77</t>
+          <t>$4242.08</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aave (9.85%)</t>
+          <t>Aave (10.19%)</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hyperliquid (-18.98%)</t>
+          <t>Hyperliquid (-17.26%)</t>
         </is>
       </c>
     </row>
